--- a/data/appointment_history.xlsx
+++ b/data/appointment_history.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWAGAT\RagaAI\medical-ai-agent\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB740F-5E4F-4F9B-AA28-11554F38DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1231,8 +1237,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,13 +1301,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1339,7 +1353,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1373,6 +1387,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1407,9 +1422,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1582,14 +1598,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1702,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1749,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1871,7 +1890,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1918,7 +1937,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1984,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2031,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2059,7 +2078,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2106,7 +2125,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2153,7 +2172,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2200,7 +2219,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2247,7 +2266,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2294,7 +2313,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2388,7 +2407,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2435,7 +2454,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2482,7 +2501,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2529,7 +2548,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2576,7 +2595,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2623,7 +2642,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2670,7 +2689,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2717,7 +2736,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2764,7 +2783,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2811,7 +2830,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2858,7 +2877,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2905,7 +2924,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2952,7 +2971,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2999,7 +3018,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3046,7 +3065,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3093,7 +3112,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3140,7 +3159,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3234,7 +3253,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3281,7 +3300,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3328,7 +3347,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3375,7 +3394,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3422,7 +3441,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3469,7 +3488,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3516,7 +3535,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3563,7 +3582,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3610,7 +3629,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3657,7 +3676,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3704,7 +3723,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3751,7 +3770,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3798,7 +3817,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3845,7 +3864,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3892,7 +3911,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3939,7 +3958,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3986,7 +4005,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -4033,7 +4052,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -4080,7 +4099,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -4127,7 +4146,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -4174,7 +4193,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -4221,7 +4240,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4268,7 +4287,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4315,7 +4334,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4362,7 +4381,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4409,7 +4428,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4456,7 +4475,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4503,7 +4522,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4597,7 +4616,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4644,7 +4663,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4691,7 +4710,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4738,7 +4757,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4785,7 +4804,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4832,7 +4851,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4879,7 +4898,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4926,7 +4945,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4973,7 +4992,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -5020,7 +5039,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -5067,7 +5086,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -5114,7 +5133,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5161,7 +5180,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -5208,7 +5227,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -5255,7 +5274,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -5302,7 +5321,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -5349,7 +5368,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -5396,7 +5415,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -5443,7 +5462,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -5490,7 +5509,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -5537,7 +5556,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -5584,7 +5603,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -5631,7 +5650,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -5678,7 +5697,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -5725,7 +5744,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -5772,7 +5791,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -5819,7 +5838,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -5866,7 +5885,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -5913,7 +5932,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5960,7 +5979,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -6007,7 +6026,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -6054,7 +6073,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -6101,7 +6120,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -6148,7 +6167,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -6195,7 +6214,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -6242,7 +6261,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -6289,7 +6308,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>

--- a/data/appointment_history.xlsx
+++ b/data/appointment_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWAGAT\RagaAI\medical-ai-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB740F-5E4F-4F9B-AA28-11554F38DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B6845-9224-4A7A-B796-8897FBC77989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1601,11 +1601,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
